--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 3.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 3.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -979,7 +979,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1071,7 +1071,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1117,7 +1117,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1232,7 +1232,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1255,7 +1255,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1301,7 +1301,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1324,7 +1324,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1462,7 +1462,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1531,7 +1531,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1581,7 +1581,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1627,7 +1627,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1650,7 +1650,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1719,7 +1719,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1811,7 +1811,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1834,7 +1834,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1857,7 +1857,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1880,7 +1880,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1903,7 +1903,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2018,7 +2018,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2041,7 +2041,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2087,7 +2087,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2110,7 +2110,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2133,7 +2133,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2202,7 +2202,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2386,7 +2386,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2478,7 +2478,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2501,7 +2501,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2574,7 +2574,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2624,7 +2624,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2739,7 +2739,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2762,7 +2762,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2785,7 +2785,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2808,7 +2808,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2831,7 +2831,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2854,7 +2854,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2900,7 +2900,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2946,7 +2946,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -2992,7 +2992,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3038,7 +3038,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3176,7 +3176,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3199,7 +3199,7 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3245,7 +3245,7 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3291,7 +3291,7 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3314,7 +3314,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3337,7 +3337,7 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3383,7 +3383,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3429,7 +3429,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
